--- a/chikarachka.xlsx
+++ b/chikarachka.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>234</t>
+    <t>34</t>
   </si>
 </sst>
 </file>

--- a/chikarachka.xlsx
+++ b/chikarachka.xlsx
@@ -14,9 +14,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>34</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>Обнинск</t>
+  </si>
+  <si>
+    <t>Саранск</t>
+  </si>
+  <si>
+    <t>23:56</t>
+  </si>
+  <si>
+    <t>Алмазный</t>
+  </si>
+  <si>
+    <t>Горный</t>
+  </si>
+  <si>
+    <t>18:46</t>
+  </si>
+  <si>
+    <t>Москва</t>
+  </si>
+  <si>
+    <t>Арзамас</t>
+  </si>
+  <si>
+    <t>12:23</t>
+  </si>
+  <si>
+    <t>Серпухов</t>
+  </si>
+  <si>
+    <t>Бухта</t>
+  </si>
+  <si>
+    <t>20:45</t>
   </si>
 </sst>
 </file>
@@ -390,15 +423,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" ht="40" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
